--- a/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25770" windowHeight="13880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Addition</t>
+    <t>Quality</t>
   </si>
   <si>
     <t>UpgradeCondition</t>
@@ -343,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -385,15 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,51 +398,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,9 +417,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,42 +515,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -543,19 +543,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,157 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,26 +886,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +919,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -949,22 +954,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,10 +974,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,133 +986,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,24 +1538,24 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.12727272727273" style="19" customWidth="1"/>
     <col min="3" max="3" width="11" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="34.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="39.375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="33.8166666666667" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.7545454545455" style="19" customWidth="1"/>
+    <col min="5" max="5" width="34.8727272727273" style="18" customWidth="1"/>
+    <col min="6" max="6" width="39.3727272727273" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.1272727272727" style="18" customWidth="1"/>
+    <col min="8" max="8" width="19.3727272727273" style="18" customWidth="1"/>
+    <col min="9" max="9" width="33.8181818181818" style="18" customWidth="1"/>
     <col min="10" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2199,13 +2199,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
+    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="2:10">
+    <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:10">
+    <row r="5" ht="14.5" spans="2:10">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>3</v>
@@ -2276,7 +2276,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="2:10">
+    <row r="6" ht="14.5" spans="2:10">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -2293,7 +2293,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="2:10">
+    <row r="7" ht="14.5" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3</v>
@@ -2310,7 +2310,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="2:10">
+    <row r="8" ht="14.5" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>3</v>
@@ -2327,7 +2327,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="2:10">
+    <row r="9" ht="14.5" spans="2:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>3</v>
@@ -2344,7 +2344,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2525,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Equipment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0369EBD-7D6E-4D81-9240-DDA09ABDD144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1524" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -82,56 +76,69 @@
     <t>SellingPrice</t>
   </si>
   <si>
+    <t>紫藤甲</t>
+  </si>
+  <si>
+    <t>紫藤甲轻且坚，能隔矢刃，然不敌火攻。穿上此甲，切记小心火烛。</t>
+  </si>
+  <si>
     <t>Primary</t>
   </si>
   <si>
     <t>1|1;1|2;1|3;2|1;2|2;2|3;3|1;3|2</t>
   </si>
   <si>
-    <t>1.1;1.2;1.3;1.4;1.5;1.6;1.7;1.8;1.9</t>
+    <t>1.2;1.4;1.6;1.9;2.2;2.5;3;3.5;4</t>
   </si>
   <si>
     <t>1|1;2|1</t>
   </si>
   <si>
-    <t>1;2;3;4;5;6;7;8;9</t>
+    <t>30;35;40;50;60;70;80;90;100</t>
+  </si>
+  <si>
+    <t>银叶甲</t>
+  </si>
+  <si>
+    <t>银叶有韧性，质地轻薄，覆于布甲之上，可得银叶甲，刀枪莫入。</t>
   </si>
   <si>
     <t>Intermediate</t>
   </si>
   <si>
+    <t>1.3;1.5;1.8;2.2;2.5;2.9;3.6;4.2;4.8</t>
+  </si>
+  <si>
+    <t>150;175;200;250;300;350;400;450;500</t>
+  </si>
+  <si>
+    <t>软猬甲</t>
+  </si>
+  <si>
+    <t>以金丝混合劲藤编织而成，不仅能防护身体，还能反伤袭击之人。</t>
+  </si>
+  <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>紫藤甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫藤甲轻且坚，能隔矢刃，然不敌火攻，切记穿上此甲，小心火烛。</t>
-  </si>
-  <si>
-    <t>紫藤甲虽轻然有间，以银树之叶坚密之，水火不侵，刀枪难入，日间更可凭借银叶反光夺人双目。</t>
-  </si>
-  <si>
-    <t>银叶甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软猬甲采用金丝和千年滕枝混合编织而成的，不但可以刀枪不入而且可以保暖，如果煨上剧毒还可以成为一件厉害的暗器，实在不失为家中必备良甲啊！</t>
-  </si>
-  <si>
-    <t>软猬甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1.5;1.7;2.1;2.6;3;3.5;4.7;5.5;6.2</t>
+  </si>
+  <si>
+    <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +154,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +307,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,33 +522,260 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDEE0E3"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color rgb="FFDEE0E3"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFDEE0E3"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFDEE0E3"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -227,23 +785,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,34 +1127,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="95.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.10833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.775" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.8833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1083333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.775" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -581,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -607,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -633,7 +1233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -659,95 +1259,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>201</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>301</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>301</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="9" spans="3:3">
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C6">
+  <sortState ref="A3:C6">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>1|1;1|2;1|3;2|1;2|2;2|3;3|1;3|2</t>
+    <t>3001|1;3001|2;3001|3;3002|1;3002|2;3002|3;3003|1;3003|2</t>
   </si>
   <si>
     <t>1.2;1.4;1.6;1.9;2.2;2.5;3;3.5;4</t>
   </si>
   <si>
-    <t>1|1;2|1</t>
+    <t>Item|1005|5</t>
   </si>
   <si>
     <t>30;35;40;50;60;70;80;90;100</t>
@@ -106,9 +106,15 @@
     <t>Intermediate</t>
   </si>
   <si>
+    <t>3001|1|2;3001|2|3;3001|3|4;3002|1|2;3002|2|3;3002|3|4;3003|1|2;3003|2|3</t>
+  </si>
+  <si>
     <t>1.3;1.5;1.8;2.2;2.5;2.9;3.6;4.2;4.8</t>
   </si>
   <si>
+    <t>Item|1005|10;Item|1007|5</t>
+  </si>
+  <si>
     <t>150;175;200;250;300;350;400;450;500</t>
   </si>
   <si>
@@ -121,7 +127,13 @@
     <t>Senior</t>
   </si>
   <si>
+    <t>3001|1|2|3;3001|2|3|4;3001|3|4|5;3002|1|2|3;3002|2|3|4;3002|3|4|5;3003|1|2|3;3003|2|3|5</t>
+  </si>
+  <si>
     <t>1.5;1.7;2.1;2.6;3;3.5;4.7;5.5;6.2</t>
+  </si>
+  <si>
+    <t>Item|1005|20;Item|3101|3</t>
   </si>
   <si>
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
@@ -133,10 +145,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,6 +167,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -162,17 +234,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,45 +264,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,47 +282,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,17 +296,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,156 +487,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,12 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,30 +530,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +573,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -610,25 +631,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,19 +649,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,112 +670,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -782,10 +794,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,18 +1145,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.10833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="58.7583333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.775" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.8833333333333" style="2" customWidth="1"/>
@@ -1237,7 +1249,7 @@
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1252,10 +1264,10 @@
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1299,16 +1311,16 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1316,25 +1328,25 @@
         <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1342,8 +1354,11 @@
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="6"/>
+    <row r="13" spans="4:4">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:C6">

--- a/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
+++ b/Tables/Sources/gameplay/Equipment/ArmorConfig.xlsx
@@ -133,7 +133,7 @@
     <t>1.5;1.7;2.1;2.6;3;3.5;4.7;5.5;6.2</t>
   </si>
   <si>
-    <t>Item|1005|20;Item|3101|3</t>
+    <t>Item|1005|20;Item|3101|5</t>
   </si>
   <si>
     <t>750;875;1000;1250;1500;1750;2000;2250;2500</t>
@@ -144,11 +144,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -166,47 +166,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,27 +191,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,11 +204,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,52 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -325,19 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,109 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,49 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,56 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,11 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,16 +592,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,7 +1150,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
